--- a/final_data_pipeline/output/311314longform_elec_options_nowhp.xlsx
+++ b/final_data_pipeline/output/311314longform_elec_options_nowhp.xlsx
@@ -543,7 +543,7 @@
         <v>28</v>
       </c>
       <c r="I2">
-        <v>10</v>
+        <v>13.00385802469133</v>
       </c>
       <c r="J2">
         <v>8000</v>
@@ -558,10 +558,10 @@
         <v>1104242.34436924</v>
       </c>
       <c r="N2">
-        <v>1.550576923076923</v>
+        <v>1.587252942212933</v>
       </c>
       <c r="O2">
-        <v>1.658958333333333</v>
+        <v>1.701551834435819</v>
       </c>
       <c r="P2">
         <v>138.030293046155</v>
@@ -596,7 +596,7 @@
         <v>29</v>
       </c>
       <c r="I3">
-        <v>10</v>
+        <v>13.00385802469133</v>
       </c>
       <c r="J3">
         <v>8000</v>
@@ -643,7 +643,7 @@
         <v>29</v>
       </c>
       <c r="I4">
-        <v>10</v>
+        <v>18.89814814814816</v>
       </c>
       <c r="J4">
         <v>8000</v>
@@ -690,7 +690,7 @@
         <v>28</v>
       </c>
       <c r="I5">
-        <v>10</v>
+        <v>-1.819444444444444</v>
       </c>
       <c r="J5">
         <v>8000</v>
@@ -705,10 +705,10 @@
         <v>1468263.736722346</v>
       </c>
       <c r="N5">
-        <v>1.550576923076923</v>
+        <v>1.421349525022035</v>
       </c>
       <c r="O5">
-        <v>1.658958333333333</v>
+        <v>1.510209672321146</v>
       </c>
       <c r="P5">
         <v>183.5329670902933</v>
@@ -743,7 +743,7 @@
         <v>29</v>
       </c>
       <c r="I6">
-        <v>10</v>
+        <v>-1.819444444444444</v>
       </c>
       <c r="J6">
         <v>8000</v>
